--- a/coordonne_case.xlsx
+++ b/coordonne_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\S7-S8\Puissance4_VHDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Puissance4_VHDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>C</t>
   </si>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,9 +257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BH62"/>
+  <dimension ref="B1:BH66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,37 +609,6 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
     </row>
     <row r="3" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -649,7 +618,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="2"/>
@@ -658,7 +627,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="2"/>
@@ -667,7 +636,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="2"/>
@@ -676,7 +645,7 @@
         <v>76</v>
       </c>
       <c r="P3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="2"/>
@@ -685,7 +654,7 @@
         <v>90</v>
       </c>
       <c r="T3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="2"/>
@@ -694,7 +663,7 @@
         <v>104</v>
       </c>
       <c r="X3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="2"/>
@@ -703,187 +672,63 @@
         <v>118</v>
       </c>
       <c r="AB3" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="2"/>
-      <c r="AF3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="str">
-        <f>DEC2HEX(C3)</f>
-        <v>22</v>
-      </c>
-      <c r="AH3" s="10" t="str">
-        <f>DEC2HEX(D3)</f>
-        <v>11</v>
-      </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="3" t="str">
-        <f>DEC2HEX(G3)</f>
-        <v>30</v>
-      </c>
-      <c r="AL3" s="10" t="str">
-        <f>DEC2HEX(H3)</f>
-        <v>11</v>
-      </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="3" t="str">
-        <f>DEC2HEX(K3)</f>
-        <v>3E</v>
-      </c>
-      <c r="AP3" s="10" t="str">
-        <f>DEC2HEX(L3)</f>
-        <v>11</v>
-      </c>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="3" t="str">
-        <f>DEC2HEX(O3)</f>
-        <v>4C</v>
-      </c>
-      <c r="AT3" s="10" t="str">
-        <f>DEC2HEX(P3)</f>
-        <v>11</v>
-      </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="3" t="str">
-        <f>DEC2HEX(S3)</f>
-        <v>5A</v>
-      </c>
-      <c r="AX3" s="10" t="str">
-        <f>DEC2HEX(T3)</f>
-        <v>11</v>
-      </c>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="3" t="str">
-        <f>DEC2HEX(W3)</f>
-        <v>68</v>
-      </c>
-      <c r="BB3" s="10" t="str">
-        <f>DEC2HEX(X3)</f>
-        <v>11</v>
-      </c>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="3" t="str">
-        <f>DEC2HEX(AA3)</f>
-        <v>76</v>
-      </c>
-      <c r="BF3" s="10" t="str">
-        <f>DEC2HEX(AB3)</f>
-        <v>11</v>
-      </c>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="2"/>
     </row>
     <row r="4" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <f>C4+1</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <f>G4+1</f>
         <v>2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <f>K4+1</f>
         <v>3</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="13">
+      <c r="S4" s="14">
         <f>O4+1</f>
         <v>4</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="13">
+      <c r="W4" s="14">
         <f>S4+1</f>
         <v>5</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="13">
+      <c r="AA4" s="14">
         <f>W4+1</f>
         <v>6</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="16"/>
       <c r="AD4" s="2"/>
-      <c r="AF4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="13">
-        <f>AG4+1</f>
-        <v>1</v>
-      </c>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="13">
-        <f>AK4+1</f>
-        <v>2</v>
-      </c>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="13">
-        <f>AO4+1</f>
-        <v>3</v>
-      </c>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="13">
-        <f>AS4+1</f>
-        <v>4</v>
-      </c>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="13">
-        <f>AW4+1</f>
-        <v>5</v>
-      </c>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="13">
-        <f>BA4+1</f>
-        <v>6</v>
-      </c>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="2"/>
     </row>
     <row r="5" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
@@ -896,7 +741,7 @@
       </c>
       <c r="E5" s="4">
         <f>D3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="12"/>
@@ -906,7 +751,7 @@
       </c>
       <c r="I5" s="4">
         <f>H3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="12"/>
@@ -916,7 +761,7 @@
       </c>
       <c r="M5" s="4">
         <f>L3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="12"/>
@@ -926,7 +771,7 @@
       </c>
       <c r="Q5" s="4">
         <f>P3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="12"/>
@@ -936,7 +781,7 @@
       </c>
       <c r="U5" s="4">
         <f>T3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="12"/>
@@ -946,7 +791,7 @@
       </c>
       <c r="Y5" s="4">
         <f>X3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="12"/>
@@ -956,86 +801,15 @@
       </c>
       <c r="AC5" s="4">
         <f>AB3+9</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AF5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="16" t="str">
-        <f>DEC2HEX(D5)</f>
-        <v>2B</v>
-      </c>
-      <c r="AI5" s="4" t="str">
-        <f>DEC2HEX(E5)</f>
-        <v>1A</v>
-      </c>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="16" t="str">
-        <f>DEC2HEX(H5)</f>
-        <v>39</v>
-      </c>
-      <c r="AM5" s="4" t="str">
-        <f>DEC2HEX(I5)</f>
-        <v>1A</v>
-      </c>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="16" t="str">
-        <f>DEC2HEX(L5)</f>
-        <v>47</v>
-      </c>
-      <c r="AQ5" s="4" t="str">
-        <f>DEC2HEX(M5)</f>
-        <v>1A</v>
-      </c>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="16" t="str">
-        <f>DEC2HEX(P5)</f>
-        <v>55</v>
-      </c>
-      <c r="AU5" s="4" t="str">
-        <f>DEC2HEX(Q5)</f>
-        <v>1A</v>
-      </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="16" t="str">
-        <f>DEC2HEX(T5)</f>
-        <v>63</v>
-      </c>
-      <c r="AY5" s="4" t="str">
-        <f>DEC2HEX(U5)</f>
-        <v>1A</v>
-      </c>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="16" t="str">
-        <f>DEC2HEX(X5)</f>
-        <v>71</v>
-      </c>
-      <c r="BC5" s="4" t="str">
-        <f>DEC2HEX(Y5)</f>
-        <v>1A</v>
-      </c>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="16" t="str">
-        <f>DEC2HEX(AB5)</f>
-        <v>7F</v>
-      </c>
-      <c r="BG5" s="4" t="str">
-        <f>DEC2HEX(AC5)</f>
-        <v>1A</v>
-      </c>
-      <c r="BH5" s="2"/>
     </row>
     <row r="6" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1058,13 +832,15 @@
       <c r="W6" s="2"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1087,92 +863,95 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
-      <c r="BD6" s="2"/>
+      <c r="BD6" s="7"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
-      <c r="BH6" s="2"/>
+      <c r="BH6" s="7"/>
     </row>
     <row r="7" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" s="3">
-        <f>C3</f>
         <v>34</v>
       </c>
       <c r="D7" s="10">
         <f>D3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <f>G3</f>
+        <f>C7+14</f>
         <v>48</v>
       </c>
       <c r="H7" s="10">
         <f>H3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3">
-        <f>K3</f>
+        <f>G7+14</f>
         <v>62</v>
       </c>
       <c r="L7" s="10">
         <f>L3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="2"/>
       <c r="O7" s="3">
-        <f>O3</f>
+        <f>K7+14</f>
         <v>76</v>
       </c>
       <c r="P7" s="10">
         <f>P3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3">
-        <f>S3</f>
+        <f>O7+14</f>
         <v>90</v>
       </c>
       <c r="T7" s="10">
         <f>T3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="3">
-        <f>W3</f>
+        <f>S7+14</f>
         <v>104</v>
       </c>
       <c r="X7" s="10">
         <f>X3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="3">
-        <f>AA3</f>
+        <f>W7+14</f>
         <v>118</v>
       </c>
       <c r="AB7" s="10">
         <f>AB3+14</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="2"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="AG7" s="3" t="str">
         <f>DEC2HEX(C7)</f>
         <v>22</v>
       </c>
       <c r="AH7" s="10" t="str">
         <f>DEC2HEX(D7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="2"/>
@@ -1182,7 +961,7 @@
       </c>
       <c r="AL7" s="10" t="str">
         <f>DEC2HEX(H7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="2"/>
@@ -1192,7 +971,7 @@
       </c>
       <c r="AP7" s="10" t="str">
         <f>DEC2HEX(L7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="2"/>
@@ -1202,7 +981,7 @@
       </c>
       <c r="AT7" s="10" t="str">
         <f>DEC2HEX(P7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="AU7" s="11"/>
       <c r="AV7" s="2"/>
@@ -1212,7 +991,7 @@
       </c>
       <c r="AX7" s="10" t="str">
         <f>DEC2HEX(T7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="2"/>
@@ -1222,7 +1001,7 @@
       </c>
       <c r="BB7" s="10" t="str">
         <f>DEC2HEX(X7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="BC7" s="11"/>
       <c r="BD7" s="2"/>
@@ -1232,113 +1011,119 @@
       </c>
       <c r="BF7" s="10" t="str">
         <f>DEC2HEX(AB7)</f>
-        <v>1F</v>
+        <v>11</v>
       </c>
       <c r="BG7" s="11"/>
       <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="13">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <f>C8+1</f>
-        <v>11</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <f>G8+1</f>
-        <v>12</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <f>K8+1</f>
-        <v>13</v>
-      </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="13">
+      <c r="S8" s="14">
         <f>O8+1</f>
-        <v>14</v>
-      </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="13">
+      <c r="W8" s="14">
         <f>S8+1</f>
-        <v>15</v>
-      </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="13">
+      <c r="AA8" s="14">
         <f>W8+1</f>
-        <v>16</v>
-      </c>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="2"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="13">
-        <v>10</v>
-      </c>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
+      <c r="AF8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="16"/>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="13">
+      <c r="AK8" s="14">
         <f>AG8+1</f>
-        <v>11</v>
-      </c>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="16"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="13">
+      <c r="AO8" s="14">
         <f>AK8+1</f>
-        <v>12</v>
-      </c>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="16"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="13">
+      <c r="AS8" s="14">
         <f>AO8+1</f>
-        <v>13</v>
-      </c>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="16"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="13">
+      <c r="AW8" s="14">
         <f>AS8+1</f>
-        <v>14</v>
-      </c>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="16"/>
       <c r="AZ8" s="2"/>
-      <c r="BA8" s="13">
+      <c r="BA8" s="14">
         <f>AW8+1</f>
-        <v>15</v>
-      </c>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="16"/>
       <c r="BD8" s="2"/>
-      <c r="BE8" s="13">
+      <c r="BE8" s="14">
         <f>BA8+1</f>
-        <v>16</v>
-      </c>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="16"/>
       <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="9">
         <f>C7+9</f>
@@ -1346,7 +1131,7 @@
       </c>
       <c r="E9" s="4">
         <f>D7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="12"/>
@@ -1356,7 +1141,7 @@
       </c>
       <c r="I9" s="4">
         <f>H7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
@@ -1366,7 +1151,7 @@
       </c>
       <c r="M9" s="4">
         <f>L7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="12"/>
@@ -1376,7 +1161,7 @@
       </c>
       <c r="Q9" s="4">
         <f>P7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="12"/>
@@ -1386,7 +1171,7 @@
       </c>
       <c r="U9" s="4">
         <f>T7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="12"/>
@@ -1396,7 +1181,7 @@
       </c>
       <c r="Y9" s="4">
         <f>X7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="12"/>
@@ -1406,78 +1191,80 @@
       </c>
       <c r="AC9" s="4">
         <f>AB7+9</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AF9" s="7"/>
+      <c r="AF9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="16" t="str">
+      <c r="AH9" s="13" t="str">
         <f>DEC2HEX(D9)</f>
         <v>2B</v>
       </c>
       <c r="AI9" s="4" t="str">
         <f>DEC2HEX(E9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="12"/>
-      <c r="AL9" s="16" t="str">
+      <c r="AL9" s="13" t="str">
         <f>DEC2HEX(H9)</f>
         <v>39</v>
       </c>
       <c r="AM9" s="4" t="str">
         <f>DEC2HEX(I9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="12"/>
-      <c r="AP9" s="16" t="str">
+      <c r="AP9" s="13" t="str">
         <f>DEC2HEX(L9)</f>
         <v>47</v>
       </c>
       <c r="AQ9" s="4" t="str">
         <f>DEC2HEX(M9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="12"/>
-      <c r="AT9" s="16" t="str">
+      <c r="AT9" s="13" t="str">
         <f>DEC2HEX(P9)</f>
         <v>55</v>
       </c>
       <c r="AU9" s="4" t="str">
         <f>DEC2HEX(Q9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="12"/>
-      <c r="AX9" s="16" t="str">
+      <c r="AX9" s="13" t="str">
         <f>DEC2HEX(T9)</f>
         <v>63</v>
       </c>
       <c r="AY9" s="4" t="str">
         <f>DEC2HEX(U9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="16" t="str">
+      <c r="BB9" s="13" t="str">
         <f>DEC2HEX(X9)</f>
         <v>71</v>
       </c>
       <c r="BC9" s="4" t="str">
         <f>DEC2HEX(Y9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="BD9" s="2"/>
       <c r="BE9" s="12"/>
-      <c r="BF9" s="16" t="str">
+      <c r="BF9" s="13" t="str">
         <f>DEC2HEX(AB9)</f>
         <v>7F</v>
       </c>
       <c r="BG9" s="4" t="str">
         <f>DEC2HEX(AC9)</f>
-        <v>28</v>
+        <v>1A</v>
       </c>
       <c r="BH9" s="2"/>
     </row>
@@ -1549,7 +1336,7 @@
       </c>
       <c r="D11" s="10">
         <f>D7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="2"/>
@@ -1559,7 +1346,7 @@
       </c>
       <c r="H11" s="10">
         <f>H7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
@@ -1569,7 +1356,7 @@
       </c>
       <c r="L11" s="10">
         <f>L7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="2"/>
@@ -1579,7 +1366,7 @@
       </c>
       <c r="P11" s="10">
         <f>P7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="2"/>
@@ -1589,7 +1376,7 @@
       </c>
       <c r="T11" s="10">
         <f>T7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="2"/>
@@ -1599,7 +1386,7 @@
       </c>
       <c r="X11" s="10">
         <f>X7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="2"/>
@@ -1609,7 +1396,7 @@
       </c>
       <c r="AB11" s="10">
         <f>AB7+14</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="2"/>
@@ -1620,7 +1407,7 @@
       </c>
       <c r="AH11" s="10" t="str">
         <f>DEC2HEX(D11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="2"/>
@@ -1630,7 +1417,7 @@
       </c>
       <c r="AL11" s="10" t="str">
         <f>DEC2HEX(H11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="2"/>
@@ -1640,7 +1427,7 @@
       </c>
       <c r="AP11" s="10" t="str">
         <f>DEC2HEX(L11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="2"/>
@@ -1650,7 +1437,7 @@
       </c>
       <c r="AT11" s="10" t="str">
         <f>DEC2HEX(P11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="AU11" s="11"/>
       <c r="AV11" s="2"/>
@@ -1660,7 +1447,7 @@
       </c>
       <c r="AX11" s="10" t="str">
         <f>DEC2HEX(T11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="2"/>
@@ -1670,7 +1457,7 @@
       </c>
       <c r="BB11" s="10" t="str">
         <f>DEC2HEX(X11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="BC11" s="11"/>
       <c r="BD11" s="2"/>
@@ -1680,109 +1467,109 @@
       </c>
       <c r="BF11" s="10" t="str">
         <f>DEC2HEX(AB11)</f>
-        <v>2D</v>
+        <v>1F</v>
       </c>
       <c r="BG11" s="11"/>
       <c r="BH11" s="2"/>
     </row>
     <row r="12" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="13">
-        <v>20</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <f>C12+1</f>
-        <v>21</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <f>G12+1</f>
-        <v>22</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="13">
+      <c r="O12" s="14">
         <f>K12+1</f>
-        <v>23</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="13">
+      <c r="S12" s="14">
         <f>O12+1</f>
-        <v>24</v>
-      </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="13">
+      <c r="W12" s="14">
         <f>S12+1</f>
-        <v>25</v>
-      </c>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="13">
+      <c r="AA12" s="14">
         <f>W12+1</f>
-        <v>26</v>
-      </c>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="2"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="15"/>
+      <c r="AG12" s="14">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="16"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="13">
+      <c r="AK12" s="14">
         <f>AG12+1</f>
-        <v>21</v>
-      </c>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="16"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="13">
+      <c r="AO12" s="14">
         <f>AK12+1</f>
-        <v>22</v>
-      </c>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="16"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="13">
+      <c r="AS12" s="14">
         <f>AO12+1</f>
-        <v>23</v>
-      </c>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="16"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="13">
+      <c r="AW12" s="14">
         <f>AS12+1</f>
-        <v>24</v>
-      </c>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="16"/>
       <c r="AZ12" s="2"/>
-      <c r="BA12" s="13">
+      <c r="BA12" s="14">
         <f>AW12+1</f>
-        <v>25</v>
-      </c>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="16"/>
       <c r="BD12" s="2"/>
-      <c r="BE12" s="13">
+      <c r="BE12" s="14">
         <f>BA12+1</f>
-        <v>26</v>
-      </c>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="16"/>
       <c r="BH12" s="2"/>
     </row>
     <row r="13" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1581,7 @@
       </c>
       <c r="E13" s="4">
         <f>D11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="12"/>
@@ -1804,7 +1591,7 @@
       </c>
       <c r="I13" s="4">
         <f>H11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
@@ -1814,7 +1601,7 @@
       </c>
       <c r="M13" s="4">
         <f>L11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="12"/>
@@ -1824,7 +1611,7 @@
       </c>
       <c r="Q13" s="4">
         <f>P11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="12"/>
@@ -1834,7 +1621,7 @@
       </c>
       <c r="U13" s="4">
         <f>T11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="12"/>
@@ -1844,7 +1631,7 @@
       </c>
       <c r="Y13" s="4">
         <f>X11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="12"/>
@@ -1854,78 +1641,78 @@
       </c>
       <c r="AC13" s="4">
         <f>AB11+9</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="16" t="str">
+      <c r="AH13" s="13" t="str">
         <f>DEC2HEX(D13)</f>
         <v>2B</v>
       </c>
       <c r="AI13" s="4" t="str">
         <f>DEC2HEX(E13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="12"/>
-      <c r="AL13" s="16" t="str">
+      <c r="AL13" s="13" t="str">
         <f>DEC2HEX(H13)</f>
         <v>39</v>
       </c>
       <c r="AM13" s="4" t="str">
         <f>DEC2HEX(I13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="12"/>
-      <c r="AP13" s="16" t="str">
+      <c r="AP13" s="13" t="str">
         <f>DEC2HEX(L13)</f>
         <v>47</v>
       </c>
       <c r="AQ13" s="4" t="str">
         <f>DEC2HEX(M13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="12"/>
-      <c r="AT13" s="16" t="str">
+      <c r="AT13" s="13" t="str">
         <f>DEC2HEX(P13)</f>
         <v>55</v>
       </c>
       <c r="AU13" s="4" t="str">
         <f>DEC2HEX(Q13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="12"/>
-      <c r="AX13" s="16" t="str">
+      <c r="AX13" s="13" t="str">
         <f>DEC2HEX(T13)</f>
         <v>63</v>
       </c>
       <c r="AY13" s="4" t="str">
         <f>DEC2HEX(U13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="12"/>
-      <c r="BB13" s="16" t="str">
+      <c r="BB13" s="13" t="str">
         <f>DEC2HEX(X13)</f>
         <v>71</v>
       </c>
       <c r="BC13" s="4" t="str">
         <f>DEC2HEX(Y13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="BD13" s="2"/>
       <c r="BE13" s="12"/>
-      <c r="BF13" s="16" t="str">
+      <c r="BF13" s="13" t="str">
         <f>DEC2HEX(AB13)</f>
         <v>7F</v>
       </c>
       <c r="BG13" s="4" t="str">
         <f>DEC2HEX(AC13)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="BH13" s="2"/>
     </row>
@@ -1997,7 +1784,7 @@
       </c>
       <c r="D15" s="10">
         <f>D11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="2"/>
@@ -2007,7 +1794,7 @@
       </c>
       <c r="H15" s="10">
         <f>H11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="2"/>
@@ -2017,7 +1804,7 @@
       </c>
       <c r="L15" s="10">
         <f>L11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="2"/>
@@ -2027,7 +1814,7 @@
       </c>
       <c r="P15" s="10">
         <f>P11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="2"/>
@@ -2037,7 +1824,7 @@
       </c>
       <c r="T15" s="10">
         <f>T11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="2"/>
@@ -2047,7 +1834,7 @@
       </c>
       <c r="X15" s="10">
         <f>X11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Y15" s="11"/>
       <c r="Z15" s="2"/>
@@ -2057,7 +1844,7 @@
       </c>
       <c r="AB15" s="10">
         <f>AB11+14</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="2"/>
@@ -2068,7 +1855,7 @@
       </c>
       <c r="AH15" s="10" t="str">
         <f>DEC2HEX(D15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="2"/>
@@ -2078,7 +1865,7 @@
       </c>
       <c r="AL15" s="10" t="str">
         <f>DEC2HEX(H15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="AM15" s="11"/>
       <c r="AN15" s="2"/>
@@ -2088,7 +1875,7 @@
       </c>
       <c r="AP15" s="10" t="str">
         <f>DEC2HEX(L15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="AQ15" s="11"/>
       <c r="AR15" s="2"/>
@@ -2098,7 +1885,7 @@
       </c>
       <c r="AT15" s="10" t="str">
         <f>DEC2HEX(P15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="AU15" s="11"/>
       <c r="AV15" s="2"/>
@@ -2108,7 +1895,7 @@
       </c>
       <c r="AX15" s="10" t="str">
         <f>DEC2HEX(T15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="AY15" s="11"/>
       <c r="AZ15" s="2"/>
@@ -2118,7 +1905,7 @@
       </c>
       <c r="BB15" s="10" t="str">
         <f>DEC2HEX(X15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="BC15" s="11"/>
       <c r="BD15" s="2"/>
@@ -2128,109 +1915,109 @@
       </c>
       <c r="BF15" s="10" t="str">
         <f>DEC2HEX(AB15)</f>
-        <v>3B</v>
+        <v>2D</v>
       </c>
       <c r="BG15" s="11"/>
       <c r="BH15" s="2"/>
     </row>
     <row r="16" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="13">
-        <v>30</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="14">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <f>C16+1</f>
-        <v>31</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="13">
+      <c r="K16" s="14">
         <f>G16+1</f>
-        <v>32</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="13">
+      <c r="O16" s="14">
         <f>K16+1</f>
-        <v>33</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="13">
+      <c r="S16" s="14">
         <f>O16+1</f>
-        <v>34</v>
-      </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="13">
+      <c r="W16" s="14">
         <f>S16+1</f>
-        <v>35</v>
-      </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="13">
+      <c r="AA16" s="14">
         <f>W16+1</f>
-        <v>36</v>
-      </c>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="2"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="13">
-        <v>30</v>
-      </c>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="15"/>
+      <c r="AG16" s="14">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="16"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="13">
+      <c r="AK16" s="14">
         <f>AG16+1</f>
-        <v>31</v>
-      </c>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="16"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="13">
+      <c r="AO16" s="14">
         <f>AK16+1</f>
-        <v>32</v>
-      </c>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="16"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="13">
+      <c r="AS16" s="14">
         <f>AO16+1</f>
-        <v>33</v>
-      </c>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="16"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="13">
+      <c r="AW16" s="14">
         <f>AS16+1</f>
-        <v>34</v>
-      </c>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="16"/>
       <c r="AZ16" s="2"/>
-      <c r="BA16" s="13">
+      <c r="BA16" s="14">
         <f>AW16+1</f>
-        <v>35</v>
-      </c>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="16"/>
       <c r="BD16" s="2"/>
-      <c r="BE16" s="13">
+      <c r="BE16" s="14">
         <f>BA16+1</f>
-        <v>36</v>
-      </c>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="16"/>
       <c r="BH16" s="2"/>
     </row>
     <row r="17" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2029,7 @@
       </c>
       <c r="E17" s="4">
         <f>D15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="12"/>
@@ -2252,7 +2039,7 @@
       </c>
       <c r="I17" s="4">
         <f>H15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
@@ -2262,7 +2049,7 @@
       </c>
       <c r="M17" s="4">
         <f>L15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="12"/>
@@ -2272,7 +2059,7 @@
       </c>
       <c r="Q17" s="4">
         <f>P15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="12"/>
@@ -2282,7 +2069,7 @@
       </c>
       <c r="U17" s="4">
         <f>T15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="12"/>
@@ -2292,7 +2079,7 @@
       </c>
       <c r="Y17" s="4">
         <f>X15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="12"/>
@@ -2302,78 +2089,78 @@
       </c>
       <c r="AC17" s="4">
         <f>AB15+9</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="12"/>
-      <c r="AH17" s="16" t="str">
+      <c r="AH17" s="13" t="str">
         <f>DEC2HEX(D17)</f>
         <v>2B</v>
       </c>
       <c r="AI17" s="4" t="str">
         <f>DEC2HEX(E17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="12"/>
-      <c r="AL17" s="16" t="str">
+      <c r="AL17" s="13" t="str">
         <f>DEC2HEX(H17)</f>
         <v>39</v>
       </c>
       <c r="AM17" s="4" t="str">
         <f>DEC2HEX(I17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AN17" s="2"/>
       <c r="AO17" s="12"/>
-      <c r="AP17" s="16" t="str">
+      <c r="AP17" s="13" t="str">
         <f>DEC2HEX(L17)</f>
         <v>47</v>
       </c>
       <c r="AQ17" s="4" t="str">
         <f>DEC2HEX(M17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="12"/>
-      <c r="AT17" s="16" t="str">
+      <c r="AT17" s="13" t="str">
         <f>DEC2HEX(P17)</f>
         <v>55</v>
       </c>
       <c r="AU17" s="4" t="str">
         <f>DEC2HEX(Q17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="12"/>
-      <c r="AX17" s="16" t="str">
+      <c r="AX17" s="13" t="str">
         <f>DEC2HEX(T17)</f>
         <v>63</v>
       </c>
       <c r="AY17" s="4" t="str">
         <f>DEC2HEX(U17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="12"/>
-      <c r="BB17" s="16" t="str">
+      <c r="BB17" s="13" t="str">
         <f>DEC2HEX(X17)</f>
         <v>71</v>
       </c>
       <c r="BC17" s="4" t="str">
         <f>DEC2HEX(Y17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BD17" s="2"/>
       <c r="BE17" s="12"/>
-      <c r="BF17" s="16" t="str">
+      <c r="BF17" s="13" t="str">
         <f>DEC2HEX(AB17)</f>
         <v>7F</v>
       </c>
       <c r="BG17" s="4" t="str">
         <f>DEC2HEX(AC17)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BH17" s="2"/>
     </row>
@@ -2445,7 +2232,7 @@
       </c>
       <c r="D19" s="10">
         <f>D15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="2"/>
@@ -2455,7 +2242,7 @@
       </c>
       <c r="H19" s="10">
         <f>H15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
@@ -2465,7 +2252,7 @@
       </c>
       <c r="L19" s="10">
         <f>L15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="2"/>
@@ -2475,7 +2262,7 @@
       </c>
       <c r="P19" s="10">
         <f>P15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="2"/>
@@ -2485,7 +2272,7 @@
       </c>
       <c r="T19" s="10">
         <f>T15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="2"/>
@@ -2495,7 +2282,7 @@
       </c>
       <c r="X19" s="10">
         <f>X15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="2"/>
@@ -2505,7 +2292,7 @@
       </c>
       <c r="AB19" s="10">
         <f>AB15+14</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="11"/>
       <c r="AD19" s="2"/>
@@ -2516,7 +2303,7 @@
       </c>
       <c r="AH19" s="10" t="str">
         <f>DEC2HEX(D19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="2"/>
@@ -2526,7 +2313,7 @@
       </c>
       <c r="AL19" s="10" t="str">
         <f>DEC2HEX(H19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="AM19" s="11"/>
       <c r="AN19" s="2"/>
@@ -2536,7 +2323,7 @@
       </c>
       <c r="AP19" s="10" t="str">
         <f>DEC2HEX(L19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="AQ19" s="11"/>
       <c r="AR19" s="2"/>
@@ -2546,7 +2333,7 @@
       </c>
       <c r="AT19" s="10" t="str">
         <f>DEC2HEX(P19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="2"/>
@@ -2556,7 +2343,7 @@
       </c>
       <c r="AX19" s="10" t="str">
         <f>DEC2HEX(T19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="2"/>
@@ -2566,7 +2353,7 @@
       </c>
       <c r="BB19" s="10" t="str">
         <f>DEC2HEX(X19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="BC19" s="11"/>
       <c r="BD19" s="2"/>
@@ -2576,109 +2363,109 @@
       </c>
       <c r="BF19" s="10" t="str">
         <f>DEC2HEX(AB19)</f>
-        <v>49</v>
+        <v>3B</v>
       </c>
       <c r="BG19" s="11"/>
       <c r="BH19" s="2"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="13">
-        <v>40</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="14">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="13">
+      <c r="G20" s="14">
         <f>C20+1</f>
-        <v>41</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="13">
+      <c r="K20" s="14">
         <f>G20+1</f>
-        <v>42</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="13">
+      <c r="O20" s="14">
         <f>K20+1</f>
-        <v>43</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="13">
+      <c r="S20" s="14">
         <f>O20+1</f>
-        <v>44</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="13">
+      <c r="W20" s="14">
         <f>S20+1</f>
-        <v>45</v>
-      </c>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="13">
+      <c r="AA20" s="14">
         <f>W20+1</f>
-        <v>46</v>
-      </c>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="2"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="13">
-        <v>40</v>
-      </c>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="15"/>
+      <c r="AG20" s="14">
+        <v>30</v>
+      </c>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="16"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="13">
+      <c r="AK20" s="14">
         <f>AG20+1</f>
-        <v>41</v>
-      </c>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="16"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="13">
+      <c r="AO20" s="14">
         <f>AK20+1</f>
-        <v>42</v>
-      </c>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="16"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="13">
+      <c r="AS20" s="14">
         <f>AO20+1</f>
-        <v>43</v>
-      </c>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="16"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="13">
+      <c r="AW20" s="14">
         <f>AS20+1</f>
-        <v>44</v>
-      </c>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="16"/>
       <c r="AZ20" s="2"/>
-      <c r="BA20" s="13">
+      <c r="BA20" s="14">
         <f>AW20+1</f>
-        <v>45</v>
-      </c>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="16"/>
       <c r="BD20" s="2"/>
-      <c r="BE20" s="13">
+      <c r="BE20" s="14">
         <f>BA20+1</f>
-        <v>46</v>
-      </c>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="16"/>
       <c r="BH20" s="2"/>
     </row>
     <row r="21" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2690,7 +2477,7 @@
       </c>
       <c r="E21" s="4">
         <f>D19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="12"/>
@@ -2700,7 +2487,7 @@
       </c>
       <c r="I21" s="4">
         <f>H19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
@@ -2710,7 +2497,7 @@
       </c>
       <c r="M21" s="4">
         <f>L19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="12"/>
@@ -2720,7 +2507,7 @@
       </c>
       <c r="Q21" s="4">
         <f>P19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="12"/>
@@ -2730,7 +2517,7 @@
       </c>
       <c r="U21" s="4">
         <f>T19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="12"/>
@@ -2740,7 +2527,7 @@
       </c>
       <c r="Y21" s="4">
         <f>X19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="12"/>
@@ -2750,78 +2537,78 @@
       </c>
       <c r="AC21" s="4">
         <f>AB19+9</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="12"/>
-      <c r="AH21" s="16" t="str">
+      <c r="AH21" s="13" t="str">
         <f>DEC2HEX(D21)</f>
         <v>2B</v>
       </c>
       <c r="AI21" s="4" t="str">
         <f>DEC2HEX(E21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="16" t="str">
+      <c r="AL21" s="13" t="str">
         <f>DEC2HEX(H21)</f>
         <v>39</v>
       </c>
       <c r="AM21" s="4" t="str">
         <f>DEC2HEX(I21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AN21" s="2"/>
       <c r="AO21" s="12"/>
-      <c r="AP21" s="16" t="str">
+      <c r="AP21" s="13" t="str">
         <f>DEC2HEX(L21)</f>
         <v>47</v>
       </c>
       <c r="AQ21" s="4" t="str">
         <f>DEC2HEX(M21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AR21" s="2"/>
       <c r="AS21" s="12"/>
-      <c r="AT21" s="16" t="str">
+      <c r="AT21" s="13" t="str">
         <f>DEC2HEX(P21)</f>
         <v>55</v>
       </c>
       <c r="AU21" s="4" t="str">
         <f>DEC2HEX(Q21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="12"/>
-      <c r="AX21" s="16" t="str">
+      <c r="AX21" s="13" t="str">
         <f>DEC2HEX(T21)</f>
         <v>63</v>
       </c>
       <c r="AY21" s="4" t="str">
         <f>DEC2HEX(U21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="12"/>
-      <c r="BB21" s="16" t="str">
+      <c r="BB21" s="13" t="str">
         <f>DEC2HEX(X21)</f>
         <v>71</v>
       </c>
       <c r="BC21" s="4" t="str">
         <f>DEC2HEX(Y21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BD21" s="2"/>
       <c r="BE21" s="12"/>
-      <c r="BF21" s="16" t="str">
+      <c r="BF21" s="13" t="str">
         <f>DEC2HEX(AB21)</f>
         <v>7F</v>
       </c>
       <c r="BG21" s="4" t="str">
         <f>DEC2HEX(AC21)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BH21" s="2"/>
     </row>
@@ -2893,7 +2680,7 @@
       </c>
       <c r="D23" s="10">
         <f>D19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="2"/>
@@ -2903,7 +2690,7 @@
       </c>
       <c r="H23" s="10">
         <f>H19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="2"/>
@@ -2913,7 +2700,7 @@
       </c>
       <c r="L23" s="10">
         <f>L19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="2"/>
@@ -2923,7 +2710,7 @@
       </c>
       <c r="P23" s="10">
         <f>P19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="2"/>
@@ -2933,7 +2720,7 @@
       </c>
       <c r="T23" s="10">
         <f>T19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="U23" s="11"/>
       <c r="V23" s="2"/>
@@ -2943,7 +2730,7 @@
       </c>
       <c r="X23" s="10">
         <f>X19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="2"/>
@@ -2953,7 +2740,7 @@
       </c>
       <c r="AB23" s="10">
         <f>AB19+14</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AC23" s="11"/>
       <c r="AD23" s="2"/>
@@ -2964,7 +2751,7 @@
       </c>
       <c r="AH23" s="10" t="str">
         <f>DEC2HEX(D23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="2"/>
@@ -2974,7 +2761,7 @@
       </c>
       <c r="AL23" s="10" t="str">
         <f>DEC2HEX(H23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="2"/>
@@ -2984,7 +2771,7 @@
       </c>
       <c r="AP23" s="10" t="str">
         <f>DEC2HEX(L23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AQ23" s="11"/>
       <c r="AR23" s="2"/>
@@ -2994,7 +2781,7 @@
       </c>
       <c r="AT23" s="10" t="str">
         <f>DEC2HEX(P23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AU23" s="11"/>
       <c r="AV23" s="2"/>
@@ -3004,7 +2791,7 @@
       </c>
       <c r="AX23" s="10" t="str">
         <f>DEC2HEX(T23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="2"/>
@@ -3014,7 +2801,7 @@
       </c>
       <c r="BB23" s="10" t="str">
         <f>DEC2HEX(X23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BC23" s="11"/>
       <c r="BD23" s="2"/>
@@ -3024,109 +2811,109 @@
       </c>
       <c r="BF23" s="10" t="str">
         <f>DEC2HEX(AB23)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BG23" s="11"/>
       <c r="BH23" s="2"/>
     </row>
     <row r="24" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="13">
-        <v>50</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="14">
+        <v>40</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="13">
+      <c r="G24" s="14">
         <f>C24+1</f>
-        <v>51</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <f>G24+1</f>
-        <v>52</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="13">
+      <c r="O24" s="14">
         <f>K24+1</f>
-        <v>53</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="13">
+      <c r="S24" s="14">
         <f>O24+1</f>
-        <v>54</v>
-      </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="T24" s="15"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="13">
+      <c r="W24" s="14">
         <f>S24+1</f>
-        <v>55</v>
-      </c>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="13">
+      <c r="AA24" s="14">
         <f>W24+1</f>
-        <v>56</v>
-      </c>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="2"/>
       <c r="AF24" s="7"/>
-      <c r="AG24" s="13">
-        <v>50</v>
-      </c>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="15"/>
+      <c r="AG24" s="14">
+        <v>40</v>
+      </c>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="16"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="13">
+      <c r="AK24" s="14">
         <f>AG24+1</f>
-        <v>51</v>
-      </c>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="16"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="13">
+      <c r="AO24" s="14">
         <f>AK24+1</f>
-        <v>52</v>
-      </c>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="16"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="13">
+      <c r="AS24" s="14">
         <f>AO24+1</f>
-        <v>53</v>
-      </c>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="16"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="13">
+      <c r="AW24" s="14">
         <f>AS24+1</f>
-        <v>54</v>
-      </c>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="16"/>
       <c r="AZ24" s="2"/>
-      <c r="BA24" s="13">
+      <c r="BA24" s="14">
         <f>AW24+1</f>
-        <v>55</v>
-      </c>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="16"/>
       <c r="BD24" s="2"/>
-      <c r="BE24" s="13">
+      <c r="BE24" s="14">
         <f>BA24+1</f>
-        <v>56</v>
-      </c>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="16"/>
       <c r="BH24" s="2"/>
     </row>
     <row r="25" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3138,7 +2925,7 @@
       </c>
       <c r="E25" s="4">
         <f>D23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="12"/>
@@ -3148,7 +2935,7 @@
       </c>
       <c r="I25" s="4">
         <f>H23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
@@ -3158,7 +2945,7 @@
       </c>
       <c r="M25" s="4">
         <f>L23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="12"/>
@@ -3168,7 +2955,7 @@
       </c>
       <c r="Q25" s="4">
         <f>P23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="12"/>
@@ -3178,7 +2965,7 @@
       </c>
       <c r="U25" s="4">
         <f>T23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="12"/>
@@ -3188,7 +2975,7 @@
       </c>
       <c r="Y25" s="4">
         <f>X23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="12"/>
@@ -3198,82 +2985,82 @@
       </c>
       <c r="AC25" s="4">
         <f>AB23+9</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="12"/>
-      <c r="AH25" s="16" t="str">
+      <c r="AH25" s="13" t="str">
         <f>DEC2HEX(D25)</f>
         <v>2B</v>
       </c>
       <c r="AI25" s="4" t="str">
         <f>DEC2HEX(E25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="12"/>
-      <c r="AL25" s="16" t="str">
+      <c r="AL25" s="13" t="str">
         <f>DEC2HEX(H25)</f>
         <v>39</v>
       </c>
       <c r="AM25" s="4" t="str">
         <f>DEC2HEX(I25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AN25" s="2"/>
       <c r="AO25" s="12"/>
-      <c r="AP25" s="16" t="str">
+      <c r="AP25" s="13" t="str">
         <f>DEC2HEX(L25)</f>
         <v>47</v>
       </c>
       <c r="AQ25" s="4" t="str">
         <f>DEC2HEX(M25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AR25" s="2"/>
       <c r="AS25" s="12"/>
-      <c r="AT25" s="16" t="str">
+      <c r="AT25" s="13" t="str">
         <f>DEC2HEX(P25)</f>
         <v>55</v>
       </c>
       <c r="AU25" s="4" t="str">
         <f>DEC2HEX(Q25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="12"/>
-      <c r="AX25" s="16" t="str">
+      <c r="AX25" s="13" t="str">
         <f>DEC2HEX(T25)</f>
         <v>63</v>
       </c>
       <c r="AY25" s="4" t="str">
         <f>DEC2HEX(U25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="12"/>
-      <c r="BB25" s="16" t="str">
+      <c r="BB25" s="13" t="str">
         <f>DEC2HEX(X25)</f>
         <v>71</v>
       </c>
       <c r="BC25" s="4" t="str">
         <f>DEC2HEX(Y25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="BD25" s="2"/>
       <c r="BE25" s="12"/>
-      <c r="BF25" s="16" t="str">
+      <c r="BF25" s="13" t="str">
         <f>DEC2HEX(AB25)</f>
         <v>7F</v>
       </c>
       <c r="BG25" s="4" t="str">
         <f>DEC2HEX(AC25)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="BH25" s="2"/>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3334,96 +3121,452 @@
       <c r="BH26" s="2"/>
     </row>
     <row r="27" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3">
+        <f>C23</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="10">
+        <f>D23+14</f>
+        <v>87</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3">
+        <f>G23</f>
+        <v>48</v>
+      </c>
+      <c r="H27" s="10">
+        <f>H23+14</f>
+        <v>87</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3">
+        <f>K23</f>
+        <v>62</v>
+      </c>
+      <c r="L27" s="10">
+        <f>L23+14</f>
+        <v>87</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3">
+        <f>O23</f>
+        <v>76</v>
+      </c>
+      <c r="P27" s="10">
+        <f>P23+14</f>
+        <v>87</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3">
+        <f>S23</f>
+        <v>90</v>
+      </c>
+      <c r="T27" s="10">
+        <f>T23+14</f>
+        <v>87</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3">
+        <f>W23</f>
+        <v>104</v>
+      </c>
+      <c r="X27" s="10">
+        <f>X23+14</f>
+        <v>87</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3">
+        <f>AA23</f>
+        <v>118</v>
+      </c>
+      <c r="AB27" s="10">
+        <f>AB23+14</f>
+        <v>87</v>
+      </c>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="2"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="3" t="str">
+        <f>DEC2HEX(C27)</f>
+        <v>22</v>
+      </c>
+      <c r="AH27" s="10" t="str">
+        <f>DEC2HEX(D27)</f>
+        <v>57</v>
+      </c>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="3" t="str">
+        <f>DEC2HEX(G27)</f>
+        <v>30</v>
+      </c>
+      <c r="AL27" s="10" t="str">
+        <f>DEC2HEX(H27)</f>
+        <v>57</v>
+      </c>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="3" t="str">
+        <f>DEC2HEX(K27)</f>
+        <v>3E</v>
+      </c>
+      <c r="AP27" s="10" t="str">
+        <f>DEC2HEX(L27)</f>
+        <v>57</v>
+      </c>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="3" t="str">
+        <f>DEC2HEX(O27)</f>
+        <v>4C</v>
+      </c>
+      <c r="AT27" s="10" t="str">
+        <f>DEC2HEX(P27)</f>
+        <v>57</v>
+      </c>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="3" t="str">
+        <f>DEC2HEX(S27)</f>
+        <v>5A</v>
+      </c>
+      <c r="AX27" s="10" t="str">
+        <f>DEC2HEX(T27)</f>
+        <v>57</v>
+      </c>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="3" t="str">
+        <f>DEC2HEX(W27)</f>
+        <v>68</v>
+      </c>
+      <c r="BB27" s="10" t="str">
+        <f>DEC2HEX(X27)</f>
+        <v>57</v>
+      </c>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="3" t="str">
+        <f>DEC2HEX(AA27)</f>
+        <v>76</v>
+      </c>
+      <c r="BF27" s="10" t="str">
+        <f>DEC2HEX(AB27)</f>
+        <v>57</v>
+      </c>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="2"/>
     </row>
     <row r="28" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="14">
+        <v>50</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="14">
+        <f>C28+1</f>
+        <v>51</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="14">
+        <f>G28+1</f>
+        <v>52</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="14">
+        <f>K28+1</f>
+        <v>53</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="14">
+        <f>O28+1</f>
+        <v>54</v>
+      </c>
+      <c r="T28" s="15"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="14">
+        <f>S28+1</f>
+        <v>55</v>
+      </c>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="14">
+        <f>W28+1</f>
+        <v>56</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="2"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="14">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="14">
+        <f>AG28+1</f>
+        <v>51</v>
+      </c>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="14">
+        <f>AK28+1</f>
+        <v>52</v>
+      </c>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="14">
+        <f>AO28+1</f>
+        <v>53</v>
+      </c>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="16"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="14">
+        <f>AS28+1</f>
+        <v>54</v>
+      </c>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="14">
+        <f>AW28+1</f>
+        <v>55</v>
+      </c>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="16"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="14">
+        <f>BA28+1</f>
+        <v>56</v>
+      </c>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="16"/>
+      <c r="BH28" s="2"/>
+    </row>
+    <row r="29" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="9">
+        <f>C27+9</f>
+        <v>43</v>
+      </c>
+      <c r="E29" s="4">
+        <f>D27+9</f>
+        <v>96</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="9">
+        <f>G27+9</f>
+        <v>57</v>
+      </c>
+      <c r="I29" s="4">
+        <f>H27+9</f>
+        <v>96</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9">
+        <f>K27+9</f>
+        <v>71</v>
+      </c>
+      <c r="M29" s="4">
+        <f>L27+9</f>
+        <v>96</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="9">
+        <f>O27+9</f>
+        <v>85</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>P27+9</f>
+        <v>96</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="9">
+        <f>S27+9</f>
+        <v>99</v>
+      </c>
+      <c r="U29" s="4">
+        <f>T27+9</f>
+        <v>96</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="9">
+        <f>W27+9</f>
+        <v>113</v>
+      </c>
+      <c r="Y29" s="4">
+        <f>X27+9</f>
+        <v>96</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="9">
+        <f>AA27+9</f>
+        <v>127</v>
+      </c>
+      <c r="AC29" s="4">
+        <f>AB27+9</f>
+        <v>96</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="13" t="str">
+        <f>DEC2HEX(D29)</f>
+        <v>2B</v>
+      </c>
+      <c r="AI29" s="4" t="str">
+        <f>DEC2HEX(E29)</f>
+        <v>60</v>
+      </c>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="13" t="str">
+        <f>DEC2HEX(H29)</f>
+        <v>39</v>
+      </c>
+      <c r="AM29" s="4" t="str">
+        <f>DEC2HEX(I29)</f>
+        <v>60</v>
+      </c>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="13" t="str">
+        <f>DEC2HEX(L29)</f>
+        <v>47</v>
+      </c>
+      <c r="AQ29" s="4" t="str">
+        <f>DEC2HEX(M29)</f>
+        <v>60</v>
+      </c>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="13" t="str">
+        <f>DEC2HEX(P29)</f>
+        <v>55</v>
+      </c>
+      <c r="AU29" s="4" t="str">
+        <f>DEC2HEX(Q29)</f>
+        <v>60</v>
+      </c>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="13" t="str">
+        <f>DEC2HEX(T29)</f>
+        <v>63</v>
+      </c>
+      <c r="AY29" s="4" t="str">
+        <f>DEC2HEX(U29)</f>
+        <v>60</v>
+      </c>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="13" t="str">
+        <f>DEC2HEX(X29)</f>
+        <v>71</v>
+      </c>
+      <c r="BC29" s="4" t="str">
+        <f>DEC2HEX(Y29)</f>
+        <v>60</v>
+      </c>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="13" t="str">
+        <f>DEC2HEX(AB29)</f>
+        <v>7F</v>
+      </c>
+      <c r="BG29" s="4" t="str">
+        <f>DEC2HEX(AC29)</f>
+        <v>60</v>
+      </c>
+      <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="2"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="2"/>
     </row>
     <row r="31" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
@@ -4161,92 +4304,191 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="91">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AW12:AY12"/>
+    <mergeCell ref="BA12:BC12"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="AS8:AU8"/>
+    <mergeCell ref="BE16:BG16"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="AW20:AY20"/>
+    <mergeCell ref="BA20:BC20"/>
     <mergeCell ref="BE20:BG20"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AO16:AQ16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AW16:AY16"/>
+    <mergeCell ref="BA16:BC16"/>
+    <mergeCell ref="BE24:BG24"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AW28:AY28"/>
+    <mergeCell ref="BA28:BC28"/>
+    <mergeCell ref="BE28:BG28"/>
     <mergeCell ref="AG24:AI24"/>
     <mergeCell ref="AK24:AM24"/>
     <mergeCell ref="AO24:AQ24"/>
     <mergeCell ref="AS24:AU24"/>
     <mergeCell ref="AW24:AY24"/>
     <mergeCell ref="BA24:BC24"/>
-    <mergeCell ref="BE24:BG24"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AO20:AQ20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AW20:AY20"/>
-    <mergeCell ref="BA20:BC20"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AO16:AQ16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AW16:AY16"/>
-    <mergeCell ref="BA16:BC16"/>
-    <mergeCell ref="BE16:BG16"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AW12:AY12"/>
-    <mergeCell ref="BA12:BC12"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AO8:AQ8"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
